--- a/thesis-artifacts/Quantitative Analysis/class_evaluation.xlsx
+++ b/thesis-artifacts/Quantitative Analysis/class_evaluation.xlsx
@@ -5,16 +5,17 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rexchou/Desktop/Experiment Data/output/experiment/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rexchou/Documents/GitHub/thesis_github/thesis-artifacts/Quantitative Analysis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD38B074-A7A3-0145-847E-FCC3F05E81F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AF17BB2-A46A-E64C-9F6C-32A1E9FE45E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="660" windowWidth="21260" windowHeight="12660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="660" windowWidth="24940" windowHeight="12660" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="class-Performance" sheetId="1" r:id="rId1"/>
-    <sheet name="class-Variation" sheetId="3" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="4" r:id="rId2"/>
+    <sheet name="class-Variation" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="34">
   <si>
     <t>GPT-o1</t>
   </si>
@@ -100,13 +101,49 @@
   </si>
   <si>
     <t>AVG(STD)</t>
+  </si>
+  <si>
+    <t>VN (Precision Oriented)</t>
+  </si>
+  <si>
+    <t>Dataset</t>
+  </si>
+  <si>
+    <t>Recycling</t>
+  </si>
+  <si>
+    <t>Supermarket</t>
+  </si>
+  <si>
+    <t>Planningpoker</t>
+  </si>
+  <si>
+    <t>Camperplus</t>
+  </si>
+  <si>
+    <t>Grocery</t>
+  </si>
+  <si>
+    <t>Sports</t>
+  </si>
+  <si>
+    <t>Ticket</t>
+  </si>
+  <si>
+    <t>School</t>
+  </si>
+  <si>
+    <t>Fish&amp;Chips</t>
+  </si>
+  <si>
+    <t>Average</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -133,6 +170,19 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -142,7 +192,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -200,11 +250,20 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -236,6 +295,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -245,7 +305,42 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -552,75 +647,75 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AZ13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:M1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A1" s="1"/>
-      <c r="B1" s="12" t="s">
+      <c r="B1" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12" t="s">
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="12"/>
-      <c r="G1" s="12"/>
-      <c r="H1" s="12" t="s">
+      <c r="F1" s="13"/>
+      <c r="G1" s="13"/>
+      <c r="H1" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="I1" s="12"/>
-      <c r="J1" s="12"/>
-      <c r="K1" s="12" t="s">
+      <c r="I1" s="13"/>
+      <c r="J1" s="13"/>
+      <c r="K1" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="L1" s="12"/>
-      <c r="M1" s="12"/>
-      <c r="N1" s="12" t="s">
+      <c r="L1" s="13"/>
+      <c r="M1" s="13"/>
+      <c r="N1" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="O1" s="12"/>
-      <c r="P1" s="13"/>
-      <c r="Q1" s="11"/>
-      <c r="R1" s="11"/>
-      <c r="S1" s="11"/>
-      <c r="T1" s="11"/>
-      <c r="U1" s="11"/>
-      <c r="V1" s="11"/>
-      <c r="W1" s="11"/>
-      <c r="X1" s="11"/>
-      <c r="Y1" s="11"/>
-      <c r="Z1" s="11"/>
-      <c r="AA1" s="11"/>
-      <c r="AB1" s="11"/>
-      <c r="AC1" s="11"/>
-      <c r="AD1" s="11"/>
-      <c r="AE1" s="11"/>
-      <c r="AF1" s="11"/>
-      <c r="AG1" s="11"/>
-      <c r="AH1" s="11"/>
-      <c r="AI1" s="11"/>
-      <c r="AJ1" s="11"/>
-      <c r="AK1" s="11"/>
-      <c r="AL1" s="11"/>
-      <c r="AM1" s="11"/>
-      <c r="AN1" s="11"/>
-      <c r="AO1" s="11"/>
-      <c r="AP1" s="11"/>
-      <c r="AQ1" s="11"/>
-      <c r="AR1" s="11"/>
-      <c r="AS1" s="11"/>
-      <c r="AT1" s="11"/>
-      <c r="AU1" s="11"/>
-      <c r="AV1" s="11"/>
-      <c r="AW1" s="11"/>
-      <c r="AX1" s="11"/>
-      <c r="AY1" s="11"/>
-      <c r="AZ1" s="11"/>
+      <c r="O1" s="13"/>
+      <c r="P1" s="14"/>
+      <c r="Q1" s="12"/>
+      <c r="R1" s="12"/>
+      <c r="S1" s="12"/>
+      <c r="T1" s="12"/>
+      <c r="U1" s="12"/>
+      <c r="V1" s="12"/>
+      <c r="W1" s="12"/>
+      <c r="X1" s="12"/>
+      <c r="Y1" s="12"/>
+      <c r="Z1" s="12"/>
+      <c r="AA1" s="12"/>
+      <c r="AB1" s="12"/>
+      <c r="AC1" s="12"/>
+      <c r="AD1" s="12"/>
+      <c r="AE1" s="12"/>
+      <c r="AF1" s="12"/>
+      <c r="AG1" s="12"/>
+      <c r="AH1" s="12"/>
+      <c r="AI1" s="12"/>
+      <c r="AJ1" s="12"/>
+      <c r="AK1" s="12"/>
+      <c r="AL1" s="12"/>
+      <c r="AM1" s="12"/>
+      <c r="AN1" s="12"/>
+      <c r="AO1" s="12"/>
+      <c r="AP1" s="12"/>
+      <c r="AQ1" s="12"/>
+      <c r="AR1" s="12"/>
+      <c r="AS1" s="12"/>
+      <c r="AT1" s="12"/>
+      <c r="AU1" s="12"/>
+      <c r="AV1" s="12"/>
+      <c r="AW1" s="12"/>
+      <c r="AX1" s="12"/>
+      <c r="AY1" s="12"/>
+      <c r="AZ1" s="12"/>
     </row>
     <row r="2" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A2" s="1"/>
@@ -1287,6 +1382,231 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7CF5A0DE-47E2-B54A-B66F-9E71C1C11A2B}">
+  <dimension ref="A1:E12"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:E12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.83203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="26" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="26" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="26" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" s="15"/>
+      <c r="B2" s="24" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="24" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="24" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" s="24" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B3" s="4">
+        <v>0.42299999999999999</v>
+      </c>
+      <c r="C3" s="4">
+        <v>0.25600000000000001</v>
+      </c>
+      <c r="D3" s="4">
+        <v>0.23400000000000001</v>
+      </c>
+      <c r="E3" s="2">
+        <v>0.38500000000000001</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" s="25" t="s">
+        <v>25</v>
+      </c>
+      <c r="B4" s="4">
+        <v>0.68</v>
+      </c>
+      <c r="C4" s="4">
+        <v>0.48199999999999998</v>
+      </c>
+      <c r="D4" s="4">
+        <v>0.55800000000000005</v>
+      </c>
+      <c r="E4" s="2">
+        <v>0.59699999999999998</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" s="25" t="s">
+        <v>26</v>
+      </c>
+      <c r="B5" s="4">
+        <v>0.64300000000000002</v>
+      </c>
+      <c r="C5" s="4">
+        <v>0.36499999999999999</v>
+      </c>
+      <c r="D5" s="4">
+        <v>0.437</v>
+      </c>
+      <c r="E5" s="2">
+        <v>0.68200000000000005</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" s="25" t="s">
+        <v>27</v>
+      </c>
+      <c r="B6" s="4">
+        <v>0.79100000000000004</v>
+      </c>
+      <c r="C6" s="4">
+        <v>0.60099999999999998</v>
+      </c>
+      <c r="D6" s="4">
+        <v>0.65800000000000003</v>
+      </c>
+      <c r="E6" s="2">
+        <v>0.67200000000000004</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="B7" s="4">
+        <v>0.63100000000000001</v>
+      </c>
+      <c r="C7" s="4">
+        <v>0.53200000000000003</v>
+      </c>
+      <c r="D7" s="4">
+        <v>0.47099999999999997</v>
+      </c>
+      <c r="E7" s="2">
+        <v>0.68200000000000005</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="B8" s="4">
+        <v>0.68899999999999995</v>
+      </c>
+      <c r="C8" s="4">
+        <v>0.56200000000000006</v>
+      </c>
+      <c r="D8" s="4">
+        <v>0.57899999999999996</v>
+      </c>
+      <c r="E8" s="2">
+        <v>0.53600000000000003</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" s="25" t="s">
+        <v>30</v>
+      </c>
+      <c r="B9" s="4">
+        <v>0.63700000000000001</v>
+      </c>
+      <c r="C9" s="4">
+        <v>0.53900000000000003</v>
+      </c>
+      <c r="D9" s="4">
+        <v>0.30399999999999999</v>
+      </c>
+      <c r="E9" s="2">
+        <v>0.59499999999999997</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" s="25" t="s">
+        <v>31</v>
+      </c>
+      <c r="B10" s="4">
+        <v>0.625</v>
+      </c>
+      <c r="C10" s="4">
+        <v>0.56299999999999994</v>
+      </c>
+      <c r="D10" s="4">
+        <v>0.60099999999999998</v>
+      </c>
+      <c r="E10" s="2">
+        <v>0.56100000000000005</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" s="25" t="s">
+        <v>32</v>
+      </c>
+      <c r="B11" s="21">
+        <v>0.61299999999999999</v>
+      </c>
+      <c r="C11" s="16">
+        <v>0.41</v>
+      </c>
+      <c r="D11" s="16">
+        <v>0.38700000000000001</v>
+      </c>
+      <c r="E11" s="17">
+        <v>0.47599999999999998</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" s="23" t="s">
+        <v>33</v>
+      </c>
+      <c r="B12" s="22">
+        <v>0.63700000000000001</v>
+      </c>
+      <c r="C12" s="18">
+        <v>0.47899999999999998</v>
+      </c>
+      <c r="D12" s="18">
+        <v>0.47</v>
+      </c>
+      <c r="E12" s="19">
+        <v>0.57599999999999996</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:A2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:G12"/>
   <sheetViews>
@@ -1298,18 +1618,18 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="1"/>
-      <c r="B1" s="12" t="s">
+      <c r="B1" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12" t="s">
+      <c r="C1" s="13"/>
+      <c r="D1" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="12"/>
-      <c r="F1" s="12" t="s">
+      <c r="E1" s="13"/>
+      <c r="F1" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="12"/>
+      <c r="G1" s="13"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="1"/>
@@ -1543,22 +1863,22 @@
       <c r="A12" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B12" s="14">
+      <c r="B12" s="11">
         <v>7.0999999999999994E-2</v>
       </c>
-      <c r="C12" s="14">
+      <c r="C12" s="11">
         <v>7.1999999999999995E-2</v>
       </c>
-      <c r="D12" s="14">
+      <c r="D12" s="11">
         <v>0.13400000000000001</v>
       </c>
-      <c r="E12" s="14">
+      <c r="E12" s="11">
         <v>0.15</v>
       </c>
-      <c r="F12" s="14">
+      <c r="F12" s="11">
         <v>0.115</v>
       </c>
-      <c r="G12" s="14">
+      <c r="G12" s="11">
         <v>0.13900000000000001</v>
       </c>
     </row>
